--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -31,7 +31,7 @@
     <t>Implement user profiles</t>
   </si>
   <si>
-    <t>Started</t>
+    <t>Completed</t>
   </si>
   <si>
     <t>Compile resources into library for users to search</t>
